--- a/out_data/system_map_export_希望镇.xlsx
+++ b/out_data/system_map_export_希望镇.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>mshop_item_id</t>
   </si>
@@ -125,103 +125,123 @@
     <t>mis_signal_block</t>
   </si>
   <si>
+    <t>mhide</t>
+  </si>
+  <si>
     <t>荒野</t>
   </si>
   <si>
+    <t>2024-08-29 01:00:40</t>
+  </si>
+  <si>
+    <t>0000-00-00 00:00:00</t>
+  </si>
+  <si>
+    <t>荒寂的平原，病恹恹的不知名杂草，一块路牌随着风吹仿佛随时要倒下，上面标着一个往右的箭头，写着希望镇三个歪歪斜斜的字 。</t>
+  </si>
+  <si>
+    <t>希望镇</t>
+  </si>
+  <si>
+    <t>晴天</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>希望镇入口</t>
+  </si>
+  <si>
+    <t>23|{r.3}+1,45|{r.4}+2</t>
+  </si>
+  <si>
+    <t>23|2|,45|5|</t>
+  </si>
+  <si>
+    <t>2024-08-29 01:01:01</t>
+  </si>
+  <si>
+    <t>为了抵御异变生物的侵蚀，人类建立了大大小小的聚集点，大部分中小规模的城镇只会拥有一个出入口。</t>
+  </si>
+  <si>
+    <t>小镇西路</t>
+  </si>
+  <si>
+    <t>23|{r.2}+1,45|{r.4}+2</t>
+  </si>
+  <si>
+    <t>23|2|,45|3|</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:52:24</t>
+  </si>
+  <si>
+    <t>路两边被高高的铁网与外界隔绝开来，说是路其实就是由各种各样不规则的石块堆一起然后用黄沙铺平，毫无美感可言。</t>
+  </si>
+  <si>
+    <t>希望镇西街</t>
+  </si>
+  <si>
+    <t>14|1,23|{r 3}+1,45|{r.4}+2</t>
+  </si>
+  <si>
+    <t>14|1|,23|1|,45|5|</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:52:23</t>
+  </si>
+  <si>
+    <t>这里就比较繁华了，路面用大理石铺成，再用紫砂点缀铺平，两旁是各种各样的工厂和农场。</t>
+  </si>
+  <si>
+    <t>23|{r.3}+1,45|{r.4}+2,53|{r.4}+2</t>
+  </si>
+  <si>
+    <t>23|1|,45|3|,53|3|</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:52:21</t>
+  </si>
+  <si>
+    <t>这里灯红酒绿，商品琳琅满目的，你都怀疑自己是不是在末世了。</t>
+  </si>
+  <si>
+    <t>希望镇广场</t>
+  </si>
+  <si>
+    <t>16|1,23|{r.3}+1,45|{r.4}+2</t>
+  </si>
+  <si>
+    <t>16|1|,23|2|,45|5|</t>
+  </si>
+  <si>
+    <t>这是一片方形广场，大约能容纳一两百人，路上行人衣着都比较讲究了，在广场中央伫立着一尊用大理石打造的雕像。</t>
+  </si>
+  <si>
+    <t>希望镇东街</t>
+  </si>
+  <si>
+    <t>23|1|,45|3|</t>
+  </si>
+  <si>
+    <t>2024-08-28 21:25:52</t>
+  </si>
+  <si>
+    <t>这里似乎是小镇的管理机构所在区域，设立了诸多机关。</t>
+  </si>
+  <si>
+    <t>综合执法局</t>
+  </si>
+  <si>
+    <t>23|{r.4}+2,45|{r.4}+2</t>
+  </si>
+  <si>
+    <t>23|3|,45|5|</t>
+  </si>
+  <si>
     <t>2024-08-12 21:47:37</t>
   </si>
   <si>
-    <t>0000-00-00 00:00:00</t>
-  </si>
-  <si>
-    <t>荒寂的平原，病恹恹的不知名杂草。
-一块路牌随着风吹仿佛随时要倒下，上面标着一个往右的箭头，写着"希望镇"三个歪歪斜斜的字 。</t>
-  </si>
-  <si>
-    <t>希望镇</t>
-  </si>
-  <si>
-    <t>晴天</t>
-  </si>
-  <si>
-    <t>0,0,0</t>
-  </si>
-  <si>
-    <t>希望镇入口</t>
-  </si>
-  <si>
-    <t>23|{r.3}+1,45|{r.4}+2</t>
-  </si>
-  <si>
-    <t>23|2|,45|4|</t>
-  </si>
-  <si>
-    <t>为了抵御异变生物的侵蚀，人类建立了大大小小的聚集点，大部分中小规模的城镇只会拥有一个出入口。</t>
-  </si>
-  <si>
-    <t>小镇西路</t>
-  </si>
-  <si>
-    <t>23|{r.2}+1,45|{r.4}+2</t>
-  </si>
-  <si>
-    <t>23|2|,45|5|</t>
-  </si>
-  <si>
-    <t>路两边被高高的铁网与外界隔绝开来，说是路其实就是由各种各样不规则的石块堆一起然后用黄沙铺平，毫无美感可言。</t>
-  </si>
-  <si>
-    <t>希望镇西街</t>
-  </si>
-  <si>
-    <t>14|1,23|{r 3}+1,45|{r.4}+2</t>
-  </si>
-  <si>
-    <t>14|1|,23|1|,45|5|</t>
-  </si>
-  <si>
-    <t>这里就比较繁华了，路面用大理石铺成，再用紫砂点缀铺平，两旁是各种各样的工厂和农场。</t>
-  </si>
-  <si>
-    <t>23|{r.3}+1,45|{r.4}+2,53|{r.4}+2</t>
-  </si>
-  <si>
-    <t>23|1|,45|3|,53|4|</t>
-  </si>
-  <si>
-    <t>这里灯红酒绿，商品琳琅满目的，你都怀疑自己是不是在末世了。</t>
-  </si>
-  <si>
-    <t>希望镇广场</t>
-  </si>
-  <si>
-    <t>16|1,23|{r.3}+1,45|{r.4}+2</t>
-  </si>
-  <si>
-    <t>16|1|,23|1|,45|3|</t>
-  </si>
-  <si>
-    <t>这是一片方形广场，大约能容纳一两百人，路上行人衣着都比较讲究了，在广场中央伫立着一尊用大理石打造的雕像。</t>
-  </si>
-  <si>
-    <t>希望镇东街</t>
-  </si>
-  <si>
-    <t>23|1|,45|2|</t>
-  </si>
-  <si>
-    <t>这里似乎是小镇的管理机构所在区域，设立了诸多机关。</t>
-  </si>
-  <si>
-    <t>综合执法局</t>
-  </si>
-  <si>
-    <t>23|{r.4}+2,45|{r.4}+2</t>
-  </si>
-  <si>
-    <t>23|3|,45|5|</t>
-  </si>
-  <si>
     <t>从这里可以进入综合执法局，此处守卫森严，最好不要随意走动，负责管理小镇大大小小的纠纷冲突问题。</t>
   </si>
   <si>
@@ -243,7 +263,10 @@
     <t>26|1,45|{r.4}+2</t>
   </si>
   <si>
-    <t>26|1|,45|2|</t>
+    <t>26|1|,45|4|</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:52:19</t>
   </si>
   <si>
     <t>这条路通向城镇里生活比较富裕的居民住处：明日小区，用的也是比较规整的大理石铺成。</t>
@@ -255,7 +278,10 @@
     <t>75|1,23|{r.3}+1,45|{r.4}+2</t>
   </si>
   <si>
-    <t>75|1|,23|1|,45|5|</t>
+    <t>75|1|,23|2|,45|4|</t>
+  </si>
+  <si>
+    <t>2024-08-28 21:25:53</t>
   </si>
   <si>
     <t>只有德高望重且武艺高超的人才能竞选成为希望镇代理镇长，负责希望镇与外界的交流沟通。</t>
@@ -282,7 +308,10 @@
     <t>45|{r.4}+2</t>
   </si>
   <si>
-    <t>45|5|</t>
+    <t>45|3|</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:51:22</t>
   </si>
   <si>
     <t>这里是希望镇明日小区的北门，中规中矩又不失威仪。</t>
@@ -294,6 +323,9 @@
     <t>大型集市</t>
   </si>
   <si>
+    <t>2024-08-29 00:51:19</t>
+  </si>
+  <si>
     <t>这里集聚了大大小小的商贩，有流动摊贩也有门店摊贩，卖着各式各样的东西。</t>
   </si>
   <si>
@@ -303,7 +335,10 @@
     <t>47|1,45|{r.3}+1</t>
   </si>
   <si>
-    <t>47|1|,45|3|</t>
+    <t>47|1|,45|1|</t>
+  </si>
+  <si>
+    <t>2024-08-28 21:25:44</t>
   </si>
   <si>
     <t>在困境中的人们总是希望在心灵上得到一些寄托。</t>
@@ -315,19 +350,25 @@
     <t>69|{r.2}+1</t>
   </si>
   <si>
+    <t>69|1|</t>
+  </si>
+  <si>
+    <t>2024-08-28 21:25:45</t>
+  </si>
+  <si>
+    <t>这条街道往北走是居民和冒险者以及佣兵们排忧解难的地方。</t>
+  </si>
+  <si>
+    <t>赌场</t>
+  </si>
+  <si>
+    <t>69|{r.2}+2</t>
+  </si>
+  <si>
     <t>69|2|</t>
   </si>
   <si>
-    <t>这条街道往北走是居民和冒险者以及佣兵们排忧解难的地方。</t>
-  </si>
-  <si>
-    <t>赌场</t>
-  </si>
-  <si>
-    <t>69|{r.2}+2</t>
-  </si>
-  <si>
-    <t>69|3|</t>
+    <t>2024-08-28 17:28:26</t>
   </si>
   <si>
     <t>末世的规则底线总是比较灵活的。</t>
@@ -339,7 +380,10 @@
     <t>45|{r.5}+5,69|{r.2}+1</t>
   </si>
   <si>
-    <t>45|9|,69|1|</t>
+    <t>45|8|,69|2|</t>
+  </si>
+  <si>
+    <t>2024-08-28 17:28:25</t>
   </si>
   <si>
     <t>人们在这里欢呼洗漱，恍然忘记了身处的时代。</t>
@@ -360,6 +404,9 @@
     <t>74|1|</t>
   </si>
   <si>
+    <t>2024-08-28 21:25:41</t>
+  </si>
+  <si>
     <t>一片阴冷的墓地，仿佛能听到魂灵在耳边的呢喃......</t>
   </si>
   <si>
@@ -369,7 +416,10 @@
     <t>71|{r.5}+2</t>
   </si>
   <si>
-    <t>71|3|</t>
+    <t>71|2|</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:51:23</t>
   </si>
   <si>
     <t>明日小区的通道，由鹅卵石铺成。</t>
@@ -384,6 +434,9 @@
     <t>45|1|</t>
   </si>
   <si>
+    <t>2024-08-29 00:51:24</t>
+  </si>
+  <si>
     <t>这栋居民楼的外观有些陈旧了，整体看起来大约20层高。</t>
   </si>
   <si>
@@ -396,6 +449,9 @@
     <t>71|0|</t>
   </si>
   <si>
+    <t>2024-08-29 00:52:17</t>
+  </si>
+  <si>
     <t>这里是明日小区的二号楼，装修风格比一号楼新颖了一点，就是电梯还在维修之中。</t>
   </si>
   <si>
@@ -414,9 +470,15 @@
     <t>风月楼</t>
   </si>
   <si>
+    <t>2024-08-28 17:28:28</t>
+  </si>
+  <si>
     <t>只谈风月不谈情，只羡鸳鸯不羡仙。</t>
   </si>
   <si>
+    <t>2024-08-15 17:28:47</t>
+  </si>
+  <si>
     <t>荒寂的平原，病恹恹的不知名杂草，右手边被严密的铁网牢牢锁住。</t>
   </si>
   <si>
@@ -429,13 +491,16 @@
     <t>荒寂的平原，病恹恹的不知名杂草。</t>
   </si>
   <si>
+    <t>2024-08-28 21:15:41</t>
+  </si>
+  <si>
     <t>荒寂的平原，病恹恹的不知名杂草，能隐约看到不远处有块木牌矗立。</t>
   </si>
   <si>
     <t>77|1|%7Bu.tasks.t16%7D%3D%3D2%26%26%7Bu.tasks.t17%7D%21%3D2</t>
   </si>
   <si>
-    <t>2024-08-12 21:51:27</t>
+    <t>2024-08-28 21:15:40</t>
   </si>
   <si>
     <t>荒寂的平原，病恹恹的不知名杂草，南边是一片辽阔的森林，危险且充满了未知。</t>
@@ -501,19 +566,43 @@
     <t>45|{r.3}+1</t>
   </si>
   <si>
+    <t>2024-08-28 22:17:40</t>
+  </si>
+  <si>
     <t>这里是{u.tomorrow_1_floor}层公寓大厦的走廊，挺宽敞，走过许多形形色色的住客。</t>
   </si>
   <si>
+    <t>2024-08-28 22:18:58</t>
+  </si>
+  <si>
+    <t>公寓走廊(电梯口)</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:51:28</t>
+  </si>
+  <si>
+    <t>这里是{u.tomorrow_1_floor}层公寓大厦的走廊，挺宽敞，走过许多形形色色的住客，一部电梯正在匆忙地运转。</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:51:30</t>
+  </si>
+  <si>
     <t>45|2|</t>
   </si>
   <si>
-    <t>公寓走廊(电梯口)</t>
-  </si>
-  <si>
-    <t>这里是{u.tomorrow_1_floor}层公寓大厦的走廊，挺宽敞，走过许多形形色色的住客，一部电梯正在匆忙地运转。</t>
-  </si>
-  <si>
-    <t>45|3|</t>
+    <t>2024-08-29 00:51:31</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:51:32</t>
+  </si>
+  <si>
+    <t>2024-08-29 00:51:33</t>
+  </si>
+  <si>
+    <t>2024-08-28 22:19:33</t>
+  </si>
+  <si>
+    <t>2024-08-28 22:19:35</t>
   </si>
   <si>
     <t>姗妮的小屋</t>
@@ -525,6 +614,9 @@
     <t>68|1|</t>
   </si>
   <si>
+    <t>2024-08-29 00:51:36</t>
+  </si>
+  <si>
     <t>「姗妮」居住的小屋，一半粉色的风格，另一半是蓝色的风格，棕色梯形沙发旁边还放着一只羊驼玩偶。</t>
   </si>
   <si>
@@ -537,7 +629,16 @@
     <t>23|3|</t>
   </si>
   <si>
+    <t>2024-08-16 00:04:25</t>
+  </si>
+  <si>
     <t>希望镇设立在原野上的一处哨站，负责警示两片森林的异常。</t>
+  </si>
+  <si>
+    <t>测试导入图</t>
+  </si>
+  <si>
+    <t>测试描述</t>
   </si>
 </sst>
 </file>
@@ -877,7 +978,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AK51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,7 +986,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -994,27 +1095,30 @@
       <c r="AJ1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2"/>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2">
         <v>559</v>
@@ -1029,7 +1133,7 @@
         <v>235</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1065,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1088,31 +1192,34 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3"/>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>664</v>
@@ -1127,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -1165,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -1188,31 +1295,34 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1227,7 +1337,7 @@
         <v>237</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1263,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="AC4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1286,31 +1396,34 @@
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5"/>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K5">
         <v>442</v>
@@ -1325,7 +1438,7 @@
         <v>238</v>
       </c>
       <c r="O5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P5">
         <v>2</v>
@@ -1361,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="AC5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1384,31 +1497,34 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6"/>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K6">
         <v>321</v>
@@ -1423,7 +1539,7 @@
         <v>239</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1459,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="AC6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1482,31 +1598,34 @@
       <c r="AJ6">
         <v>0</v>
       </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7"/>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K7">
         <v>322</v>
@@ -1521,7 +1640,7 @@
         <v>240</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -1559,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="AC7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1582,31 +1701,34 @@
       <c r="AJ7">
         <v>0</v>
       </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8"/>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K8">
         <v>242</v>
@@ -1621,7 +1743,7 @@
         <v>241</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -1657,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="AC8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1680,31 +1802,34 @@
       <c r="AJ8">
         <v>0</v>
       </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9"/>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1719,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -1755,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="AC9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1778,31 +1903,34 @@
       <c r="AJ9">
         <v>0</v>
       </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10"/>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1817,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -1853,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="AC10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1876,31 +2004,34 @@
       <c r="AJ10">
         <v>0</v>
       </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11"/>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <v>239</v>
@@ -1915,7 +2046,7 @@
         <v>316</v>
       </c>
       <c r="O11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -1951,10 +2082,10 @@
         <v>0</v>
       </c>
       <c r="AC11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -1974,31 +2105,34 @@
       <c r="AJ11">
         <v>0</v>
       </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12"/>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K12">
         <v>240</v>
@@ -2013,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -2049,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="AC12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2072,31 +2206,34 @@
       <c r="AJ12">
         <v>0</v>
       </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13"/>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K13">
         <v>235</v>
@@ -2111,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -2147,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="AC13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AE13">
         <v>1</v>
@@ -2170,31 +2307,34 @@
       <c r="AJ13">
         <v>0</v>
       </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:37">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K14">
         <v>273</v>
@@ -2209,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P14">
         <v>2</v>
@@ -2245,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="AC14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE14">
         <v>0</v>
@@ -2268,31 +2408,34 @@
       <c r="AJ14">
         <v>0</v>
       </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:37">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15"/>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K15">
         <v>238</v>
@@ -2307,7 +2450,7 @@
         <v>273</v>
       </c>
       <c r="O15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -2336,7 +2479,7 @@
         <v>1</v>
       </c>
       <c r="Z15" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA15">
         <v>1</v>
@@ -2345,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="AC15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2368,31 +2511,34 @@
       <c r="AJ15">
         <v>0</v>
       </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16"/>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="K16">
         <v>438</v>
@@ -2407,7 +2553,7 @@
         <v>322</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P16">
         <v>2</v>
@@ -2443,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="AC16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -2466,31 +2612,34 @@
       <c r="AJ16">
         <v>0</v>
       </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:37">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17"/>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="K17">
         <v>323</v>
@@ -2505,7 +2654,7 @@
         <v>242</v>
       </c>
       <c r="O17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -2541,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="AC17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -2564,31 +2713,34 @@
       <c r="AJ17">
         <v>0</v>
       </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:37">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18"/>
       <c r="J18" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="K18">
         <v>496</v>
@@ -2603,7 +2755,7 @@
         <v>437</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P18">
         <v>2</v>
@@ -2639,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="AC18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -2662,31 +2814,34 @@
       <c r="AJ18">
         <v>0</v>
       </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:37">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19"/>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2701,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P19">
         <v>2</v>
@@ -2739,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="AC19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -2762,27 +2917,30 @@
       <c r="AJ19">
         <v>0</v>
       </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:37">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20"/>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2797,7 +2955,7 @@
         <v>323</v>
       </c>
       <c r="O20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P20">
         <v>2</v>
@@ -2833,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="AC20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -2856,31 +3014,34 @@
       <c r="AJ20">
         <v>0</v>
       </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:37">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21"/>
       <c r="J21" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2895,7 +3056,7 @@
         <v>321</v>
       </c>
       <c r="O21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P21">
         <v>2</v>
@@ -2933,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="AC21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -2956,31 +3117,34 @@
       <c r="AJ21">
         <v>0</v>
       </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:37">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22"/>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="K22">
         <v>319</v>
@@ -2995,7 +3159,7 @@
         <v>493</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P22">
         <v>2</v>
@@ -3031,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="AC22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -3054,31 +3218,34 @@
       <c r="AJ22">
         <v>0</v>
       </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:37">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23"/>
       <c r="J23" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -3093,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P23">
         <v>2</v>
@@ -3131,10 +3298,10 @@
         <v>0</v>
       </c>
       <c r="AC23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3154,31 +3321,34 @@
       <c r="AJ23">
         <v>0</v>
       </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:37">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24"/>
       <c r="J24" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -3193,7 +3363,7 @@
         <v>492</v>
       </c>
       <c r="O24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P24">
         <v>2</v>
@@ -3229,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="AC24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE24">
         <v>0</v>
@@ -3252,31 +3422,34 @@
       <c r="AJ24">
         <v>0</v>
       </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:37">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25"/>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="K25">
         <v>492</v>
@@ -3291,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P25">
         <v>2</v>
@@ -3327,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="AC25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -3350,27 +3523,30 @@
       <c r="AJ25">
         <v>0</v>
       </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:37">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26"/>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -3385,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P26">
         <v>2</v>
@@ -3421,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="AC26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -3444,27 +3620,30 @@
       <c r="AJ26">
         <v>0</v>
       </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:37">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27"/>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="K27">
         <v>658</v>
@@ -3479,7 +3658,7 @@
         <v>664</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P27">
         <v>2</v>
@@ -3515,10 +3694,10 @@
         <v>0</v>
       </c>
       <c r="AC27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -3538,31 +3717,34 @@
       <c r="AJ27">
         <v>0</v>
       </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:37">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28"/>
       <c r="J28" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="K28">
         <v>564</v>
@@ -3577,7 +3759,7 @@
         <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P28">
         <v>2</v>
@@ -3613,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="AC28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE28">
         <v>0</v>
@@ -3636,27 +3818,30 @@
       <c r="AJ28">
         <v>0</v>
       </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:37">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29"/>
       <c r="J29" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="K29">
         <v>233</v>
@@ -3671,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -3707,10 +3892,10 @@
         <v>0</v>
       </c>
       <c r="AC29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -3730,31 +3915,34 @@
       <c r="AJ29">
         <v>0</v>
       </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:37">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30"/>
       <c r="J30" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="K30">
         <v>560</v>
@@ -3769,7 +3957,7 @@
         <v>561</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P30">
         <v>2</v>
@@ -3805,10 +3993,10 @@
         <v>0</v>
       </c>
       <c r="AC30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -3828,27 +4016,30 @@
       <c r="AJ30">
         <v>0</v>
       </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:37">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31"/>
       <c r="J31" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3863,7 +4054,7 @@
         <v>560</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P31">
         <v>2</v>
@@ -3899,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="AC31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -3922,27 +4113,30 @@
       <c r="AJ31">
         <v>0</v>
       </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:37">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32"/>
       <c r="J32" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="K32">
         <v>652</v>
@@ -3957,7 +4151,7 @@
         <v>559</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -3993,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="AC32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -4016,31 +4210,34 @@
       <c r="AJ32">
         <v>0</v>
       </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:37">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33"/>
       <c r="J33" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="K33">
         <v>237</v>
@@ -4055,7 +4252,7 @@
         <v>320</v>
       </c>
       <c r="O33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -4091,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="AC33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -4114,31 +4311,34 @@
       <c r="AJ33">
         <v>0</v>
       </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:37">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34"/>
       <c r="J34" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="K34">
         <v>604</v>
@@ -4153,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P34">
         <v>2</v>
@@ -4189,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="AC34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -4212,31 +4412,34 @@
       <c r="AJ34">
         <v>0</v>
       </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:37">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35"/>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -4251,7 +4454,7 @@
         <v>604</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P35">
         <v>2</v>
@@ -4289,10 +4492,10 @@
         <v>0</v>
       </c>
       <c r="AC35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -4312,31 +4515,34 @@
       <c r="AJ35">
         <v>0</v>
       </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:37">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E36" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36"/>
       <c r="J36" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="K36">
         <v>608</v>
@@ -4351,7 +4557,7 @@
         <v>607</v>
       </c>
       <c r="O36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P36">
         <v>2</v>
@@ -4389,10 +4595,10 @@
         <v>0</v>
       </c>
       <c r="AC36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -4412,27 +4618,30 @@
       <c r="AJ36">
         <v>0</v>
       </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:37">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37"/>
       <c r="J37" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -4447,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P37">
         <v>2</v>
@@ -4485,10 +4694,10 @@
         <v>1</v>
       </c>
       <c r="AC37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -4508,31 +4717,34 @@
       <c r="AJ37">
         <v>0</v>
       </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:37">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38"/>
       <c r="J38" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4547,7 +4759,7 @@
         <v>613</v>
       </c>
       <c r="O38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P38">
         <v>2</v>
@@ -4583,10 +4795,10 @@
         <v>0</v>
       </c>
       <c r="AC38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE38">
         <v>0</v>
@@ -4606,31 +4818,34 @@
       <c r="AJ38">
         <v>0</v>
       </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:37">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E39" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39"/>
       <c r="J39" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4645,7 +4860,7 @@
         <v>614</v>
       </c>
       <c r="O39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P39">
         <v>2</v>
@@ -4681,10 +4896,10 @@
         <v>0</v>
       </c>
       <c r="AC39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -4704,31 +4919,34 @@
       <c r="AJ39">
         <v>0</v>
       </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:37">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40"/>
       <c r="J40" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4743,7 +4961,7 @@
         <v>615</v>
       </c>
       <c r="O40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P40">
         <v>2</v>
@@ -4781,10 +4999,10 @@
         <v>0</v>
       </c>
       <c r="AC40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -4804,31 +5022,34 @@
       <c r="AJ40">
         <v>0</v>
       </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:37">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41"/>
       <c r="J41" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4843,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P41">
         <v>2</v>
@@ -4879,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="AC41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -4902,31 +5123,34 @@
       <c r="AJ41">
         <v>0</v>
       </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:37">
       <c r="A42" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42"/>
       <c r="J42" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K42">
         <v>615</v>
@@ -4941,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P42">
         <v>2</v>
@@ -4977,10 +5201,10 @@
         <v>0</v>
       </c>
       <c r="AC42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -5000,31 +5224,34 @@
       <c r="AJ42">
         <v>0</v>
       </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:37">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43"/>
       <c r="J43" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K43">
         <v>616</v>
@@ -5039,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P43">
         <v>2</v>
@@ -5075,10 +5302,10 @@
         <v>0</v>
       </c>
       <c r="AC43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE43">
         <v>0</v>
@@ -5098,31 +5325,34 @@
       <c r="AJ43">
         <v>0</v>
       </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:37">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44"/>
       <c r="J44" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -5137,7 +5367,7 @@
         <v>617</v>
       </c>
       <c r="O44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P44">
         <v>2</v>
@@ -5175,10 +5405,10 @@
         <v>0</v>
       </c>
       <c r="AC44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -5198,31 +5428,34 @@
       <c r="AJ44">
         <v>0</v>
       </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:37">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="G45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45"/>
       <c r="J45" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -5237,7 +5470,7 @@
         <v>618</v>
       </c>
       <c r="O45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P45">
         <v>2</v>
@@ -5273,10 +5506,10 @@
         <v>0</v>
       </c>
       <c r="AC45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -5296,31 +5529,34 @@
       <c r="AJ45">
         <v>0</v>
       </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:37">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46"/>
       <c r="J46" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K46">
         <v>612</v>
@@ -5335,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P46">
         <v>2</v>
@@ -5371,10 +5607,10 @@
         <v>0</v>
       </c>
       <c r="AC46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE46">
         <v>0</v>
@@ -5394,31 +5630,34 @@
       <c r="AJ46">
         <v>0</v>
       </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:37">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47"/>
       <c r="J47" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="K47">
         <v>612</v>
@@ -5433,7 +5672,7 @@
         <v>619</v>
       </c>
       <c r="O47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P47">
         <v>2</v>
@@ -5469,10 +5708,10 @@
         <v>0</v>
       </c>
       <c r="AC47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE47">
         <v>0</v>
@@ -5492,27 +5731,30 @@
       <c r="AJ47">
         <v>0</v>
       </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:37">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48"/>
       <c r="J48" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -5527,7 +5769,7 @@
         <v>562</v>
       </c>
       <c r="O48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P48">
         <v>2</v>
@@ -5563,10 +5805,10 @@
         <v>0</v>
       </c>
       <c r="AC48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE48">
         <v>0</v>
@@ -5586,31 +5828,34 @@
       <c r="AJ48">
         <v>0</v>
       </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:37">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49"/>
       <c r="J49" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="K49">
         <v>618</v>
@@ -5625,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P49">
         <v>2</v>
@@ -5661,10 +5906,10 @@
         <v>0</v>
       </c>
       <c r="AC49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD49" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE49">
         <v>0</v>
@@ -5684,31 +5929,34 @@
       <c r="AJ49">
         <v>0</v>
       </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:37">
       <c r="A50" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="E50" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50"/>
       <c r="J50" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5723,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P50">
         <v>2</v>
@@ -5759,27 +6007,127 @@
         <v>0</v>
       </c>
       <c r="AC50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>1</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37">
+      <c r="A51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51"/>
+      <c r="J51" t="s">
+        <v>207</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
         <v>41</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51"/>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="s">
         <v>42</v>
       </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>1</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-      <c r="AJ50">
+      <c r="AD51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
         <v>0</v>
       </c>
     </row>
